--- a/biology/Botanique/Sables-de-l'océan/Sables-de-l'océan.xlsx
+++ b/biology/Botanique/Sables-de-l'océan/Sables-de-l'océan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sables-de-l%27oc%C3%A9an</t>
+          <t>Sables-de-l'océan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sables-de-l'océan est un vin issu du vignoble des « sables de l'océan », qui s'étend sur une frange littorale du département des Landes, de Lit-et-Mixe au nord à Capbreton au sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sables-de-l%27oc%C3%A9an</t>
+          <t>Sables-de-l'océan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble des sables de l'océan est accroché aux dunes du littoral ou cultivés dans des plaines sablonneuses bordant l'océan. Les racines explorent un sous-sol de coquillages et de graviers marins. Le sable filtrant et chaud accélère la maturation du raisin. Les rouges et les rosés à base de Cabernet Franc, Cabernet Sauvignon, Tannat  expriment des arômes de violette et de bruyère. Les blancs secs à base de Chenin et de Crouchen sont parfumés, fruités et charnus. Cet encépagement est strictement fidèle à l'histoire du vignoble.
 Au Domaine Les Dunes de La Pointe à Capbreton la vigne est conduite basse, en taille courte. Les densités de plantation sont élevées (7 000 pieds/ha) et les rendements faibles (40 hl/ha). L'écosystème dunaire est riche de vie mais fragile : le vigneron doit comprendre et savoir s'adapter pour le préserver. C'est pourquoi les techniques sont basées sur une fertilisation organique et un désherbage strictement mécanique. De nombreuses façons culturales sont pratiquées à la main cep après cep et le sol est protégé par un couvert végétal (association de graminées et de vesce) durant toute la période hivernale.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sables-de-l%27oc%C3%A9an</t>
+          <t>Sables-de-l'océan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du XIIIe et XIXe siècles, les dunes de Capbreton, Vieux Boucau, Messanges et Hossegor sont fixées par des vignobles, dits vignobles de dunes. Très prisé, ce vin est rapidement soumis à l'imposition (XVIe siècle). En 1600, la commune de Messanges produit à elle seule 300.000 litres de vin, qui sont consommés dans le pays et exportés en Angleterre et en Hollande grâce à la proximité du port de Bayonne. On le trouve à cette époque le Capbreton rouge à la carte des menus royaux aux côtés de mets raffinés (on le sert notamment en 1680 à la cour du roi de France avec des oranges de Chine).
 À Capbreton le vignoble est à l'époque composé de petites parcelles formant des dunes. Des palissades de brandes et de genêts divisent leur versant Est en « tournets » et servent de remparts à la vigne, plantée à l'abri des vents dominants porteurs d'embruns destructeurs. Les jeunes sarments ne sont pas taillés car chaque année, on enfouit les ceps avec du sable amendé de coquillages ; les grappes reposant ainsi sur le sable brûlant de l'été, acquièrent une parfaite maturité. Cette pratique, appelée en gascon local "probagne", a longtemps persisté de Capbreton à Messanges, pour disparaître progressivement entre les deux conflits mondiaux : à cause de cette conduite très particulière de la vigne, on pouvait trouver il y a 50 ans de très vieux réseaux de racines, impressionnants par leurs dimensions latérales souterraines, qui contribuaient réellement à retenir le sable des dunes.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sables-de-l%27oc%C3%A9an</t>
+          <t>Sables-de-l'océan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>De nos jours</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À Capbreton, les ceps de vignes sont établis sur les dunes du front de mer, au sud de la commune, à 100 et 800 mètres de la plage. Ils s'épanouissent à l'abri des vents salés, dans un milieu très particulier, fait de la douceur océane et de la chaleur du sable. Les nouveaux producteurs des vins de sables ainsi s'inscrivent dans la tradition des marins-vignerons qui firent la réputation du Capbreton rouge, du Tite de Crabe (chèvre en Gascon) ou chenin blanc.
 </t>
